--- a/Code/Results/Cases/Case_5_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_226/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.31423641877188</v>
+        <v>12.83636662940317</v>
       </c>
       <c r="C2">
-        <v>7.511928257693507</v>
+        <v>9.858893280965644</v>
       </c>
       <c r="D2">
-        <v>5.233091489902924</v>
+        <v>6.035034581594623</v>
       </c>
       <c r="E2">
-        <v>8.385929204312042</v>
+        <v>12.40552867458604</v>
       </c>
       <c r="F2">
-        <v>21.49350682432563</v>
+        <v>29.17808867001389</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.50164740302284</v>
+        <v>9.200439912298622</v>
       </c>
       <c r="L2">
-        <v>6.743130820524383</v>
+        <v>9.629963664221798</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.7586228020972</v>
+        <v>26.16319783465897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.34324720818663</v>
+        <v>12.58634283144126</v>
       </c>
       <c r="C3">
-        <v>7.546977736889955</v>
+        <v>9.869088147762357</v>
       </c>
       <c r="D3">
-        <v>5.133476765151538</v>
+        <v>5.99939281838004</v>
       </c>
       <c r="E3">
-        <v>8.266472853933887</v>
+        <v>12.41836552109813</v>
       </c>
       <c r="F3">
-        <v>21.19973916569477</v>
+        <v>29.21694017154272</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86263492933799</v>
+        <v>9.019088439655929</v>
       </c>
       <c r="L3">
-        <v>6.540097075991986</v>
+        <v>9.616304712339197</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.74491415860057</v>
+        <v>26.23728306690399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71207607137471</v>
+        <v>12.43274874063101</v>
       </c>
       <c r="C4">
-        <v>7.569684086065726</v>
+        <v>9.875864392211966</v>
       </c>
       <c r="D4">
-        <v>5.070927302089738</v>
+        <v>5.977044282430203</v>
       </c>
       <c r="E4">
-        <v>8.197695542806812</v>
+        <v>12.42856340197524</v>
       </c>
       <c r="F4">
-        <v>21.03643820174394</v>
+        <v>29.247974055141</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.4505052861115</v>
+        <v>8.907323940884734</v>
       </c>
       <c r="L4">
-        <v>6.415762151178588</v>
+        <v>9.609573857461271</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.7509943187669</v>
+        <v>26.28812220415171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.44601584634574</v>
+        <v>12.37022585299068</v>
       </c>
       <c r="C5">
-        <v>7.579234680891086</v>
+        <v>9.878756095433459</v>
       </c>
       <c r="D5">
-        <v>5.045106490991572</v>
+        <v>5.967822980051971</v>
       </c>
       <c r="E5">
-        <v>8.170821549148055</v>
+        <v>12.43330146478711</v>
       </c>
       <c r="F5">
-        <v>20.97413368303623</v>
+        <v>29.26242262540693</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.27764341583663</v>
+        <v>8.861736647058095</v>
       </c>
       <c r="L5">
-        <v>6.365245680455582</v>
+        <v>9.607249651936876</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.75698294230894</v>
+        <v>26.31018238476176</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.40130040733917</v>
+        <v>12.35985067408344</v>
       </c>
       <c r="C6">
-        <v>7.580838507862493</v>
+        <v>9.879244144951898</v>
       </c>
       <c r="D6">
-        <v>5.040799464984424</v>
+        <v>5.966284977222403</v>
       </c>
       <c r="E6">
-        <v>8.166428866871478</v>
+        <v>12.43412338432649</v>
       </c>
       <c r="F6">
-        <v>20.96404250452593</v>
+        <v>29.26493052958671</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.24864493650463</v>
+        <v>8.854166186231465</v>
       </c>
       <c r="L6">
-        <v>6.356868645436379</v>
+        <v>9.606889068266895</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.75818544580876</v>
+        <v>26.31392648501451</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70852381005564</v>
+        <v>12.43190514288592</v>
       </c>
       <c r="C7">
-        <v>7.569811684541684</v>
+        <v>9.875902862456993</v>
       </c>
       <c r="D7">
-        <v>5.070580392251708</v>
+        <v>5.976920379149067</v>
       </c>
       <c r="E7">
-        <v>8.197328437496797</v>
+        <v>12.42862494342738</v>
       </c>
       <c r="F7">
-        <v>21.03558084337422</v>
+        <v>29.24816162209678</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.44819382653234</v>
+        <v>8.906709223536888</v>
       </c>
       <c r="L7">
-        <v>6.415080163989699</v>
+        <v>9.60954081437453</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.75106104639086</v>
+        <v>26.2884142820093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.98666485442515</v>
+        <v>12.7502267473879</v>
       </c>
       <c r="C8">
-        <v>7.523766782009621</v>
+        <v>9.862301521174615</v>
       </c>
       <c r="D8">
-        <v>5.199041835948772</v>
+        <v>6.022843271790872</v>
       </c>
       <c r="E8">
-        <v>8.34379573645408</v>
+        <v>12.40947415838365</v>
       </c>
       <c r="F8">
-        <v>21.38864526688377</v>
+        <v>29.18999297856066</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.28544849066739</v>
+        <v>9.138032400014756</v>
       </c>
       <c r="L8">
-        <v>6.673096445013094</v>
+        <v>9.624911861240253</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.75080656153571</v>
+        <v>26.18763039704669</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.21815903806191</v>
+        <v>13.37008440802253</v>
       </c>
       <c r="C9">
-        <v>7.442917434761265</v>
+        <v>9.839708834549315</v>
       </c>
       <c r="D9">
-        <v>5.43926448162861</v>
+        <v>6.109098681552312</v>
       </c>
       <c r="E9">
-        <v>8.66696327737154</v>
+        <v>12.39029198177722</v>
       </c>
       <c r="F9">
-        <v>22.21814652242665</v>
+        <v>29.13299950006133</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.76876081971319</v>
+        <v>9.585746303022576</v>
       </c>
       <c r="L9">
-        <v>7.178885213977171</v>
+        <v>9.668080173699563</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.87127984039753</v>
+        <v>26.03255931855447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.69372748446528</v>
+        <v>13.81800485084971</v>
       </c>
       <c r="C10">
-        <v>7.389337108665293</v>
+        <v>9.825571311995342</v>
       </c>
       <c r="D10">
-        <v>5.607776734774501</v>
+        <v>6.170004330189186</v>
       </c>
       <c r="E10">
-        <v>8.925771488309762</v>
+        <v>12.38738541562169</v>
       </c>
       <c r="F10">
-        <v>22.91273218088439</v>
+        <v>29.12603353050408</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.76067873763108</v>
+        <v>9.907714257184216</v>
       </c>
       <c r="L10">
-        <v>7.547016064056851</v>
+        <v>9.707570611228943</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.04152522909469</v>
+        <v>25.94472382462172</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.33023546023112</v>
+        <v>14.0191957713567</v>
       </c>
       <c r="C11">
-        <v>7.366243816292386</v>
+        <v>9.819668870438633</v>
       </c>
       <c r="D11">
-        <v>5.682546485976077</v>
+        <v>6.197145035164279</v>
       </c>
       <c r="E11">
-        <v>9.048013052696581</v>
+        <v>12.3884855831691</v>
       </c>
       <c r="F11">
-        <v>23.24735746602673</v>
+        <v>29.13045217163483</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.19064671895585</v>
+        <v>10.05201181297792</v>
       </c>
       <c r="L11">
-        <v>7.713140065576088</v>
+        <v>9.727183058447173</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.13838021292983</v>
+        <v>25.91045964479191</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.56633846421844</v>
+        <v>14.09493783731448</v>
       </c>
       <c r="C12">
-        <v>7.357685069271071</v>
+        <v>9.817509380484351</v>
       </c>
       <c r="D12">
-        <v>5.710576642031455</v>
+        <v>6.207338519019174</v>
       </c>
       <c r="E12">
-        <v>9.094938458752903</v>
+        <v>12.38924960488999</v>
       </c>
       <c r="F12">
-        <v>23.37675642107883</v>
+        <v>29.13321563444157</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.35041541569025</v>
+        <v>10.10629071537204</v>
       </c>
       <c r="L12">
-        <v>7.775812834730537</v>
+        <v>9.73484284916527</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.17797939681389</v>
+        <v>25.89830531072852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.51570758711754</v>
+        <v>14.07864634749866</v>
       </c>
       <c r="C13">
-        <v>7.359520032801803</v>
+        <v>9.817971107695424</v>
       </c>
       <c r="D13">
-        <v>5.704552637051648</v>
+        <v>6.205146954713183</v>
       </c>
       <c r="E13">
-        <v>9.084804186074374</v>
+        <v>12.38906962471989</v>
       </c>
       <c r="F13">
-        <v>23.34876869522071</v>
+        <v>29.13257200826777</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.31614187245802</v>
+        <v>10.09461773837176</v>
       </c>
       <c r="L13">
-        <v>7.762326174331874</v>
+        <v>9.733182880733304</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.16931897745111</v>
+        <v>25.90088642763078</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.34975818884048</v>
+        <v>14.02543644034151</v>
       </c>
       <c r="C14">
-        <v>7.365535939050762</v>
+        <v>9.819489694322465</v>
       </c>
       <c r="D14">
-        <v>5.68485829141197</v>
+        <v>6.197985360758789</v>
       </c>
       <c r="E14">
-        <v>9.051860977400148</v>
+        <v>12.3885414830357</v>
       </c>
       <c r="F14">
-        <v>23.257949415156</v>
+        <v>29.13065768172536</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.20385206548474</v>
+        <v>10.05648494053621</v>
       </c>
       <c r="L14">
-        <v>7.71830111496522</v>
+        <v>9.727808588578252</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.14157875372129</v>
+        <v>25.90944323925065</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.247469524316</v>
+        <v>13.99278378964651</v>
       </c>
       <c r="C15">
-        <v>7.369245166643436</v>
+        <v>9.820429710714283</v>
       </c>
       <c r="D15">
-        <v>5.672757672438779</v>
+        <v>6.193587641825602</v>
       </c>
       <c r="E15">
-        <v>9.031764649160552</v>
+        <v>12.38826319351888</v>
       </c>
       <c r="F15">
-        <v>23.20266945661403</v>
+        <v>29.12962704010594</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.13467432694409</v>
+        <v>10.0330786852031</v>
       </c>
       <c r="L15">
-        <v>7.691302783051544</v>
+        <v>9.724546897391814</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12497147748506</v>
+        <v>25.9147914827932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.65143682951769</v>
+        <v>13.80479832256563</v>
       </c>
       <c r="C16">
-        <v>7.390872246387277</v>
+        <v>9.825967656502122</v>
       </c>
       <c r="D16">
-        <v>5.602851314372685</v>
+        <v>6.168219001733175</v>
       </c>
       <c r="E16">
-        <v>8.917872303702504</v>
+        <v>12.38736218720234</v>
       </c>
       <c r="F16">
-        <v>22.89123917643365</v>
+        <v>29.12589738847683</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.73215187131873</v>
+        <v>9.898235962035013</v>
       </c>
       <c r="L16">
-        <v>7.536128754854425</v>
+        <v>9.706321718239138</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.03559738733753</v>
+        <v>25.94707780981774</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.27693986368755</v>
+        <v>13.68876229890597</v>
       </c>
       <c r="C17">
-        <v>7.404469119044759</v>
+        <v>9.829500154551237</v>
       </c>
       <c r="D17">
-        <v>5.55947363966087</v>
+        <v>6.152509313564454</v>
       </c>
       <c r="E17">
-        <v>8.849148303700179</v>
+        <v>12.38742928499015</v>
       </c>
       <c r="F17">
-        <v>22.70496656748012</v>
+        <v>29.12555237403592</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.4797741014523</v>
+        <v>9.814921382407952</v>
       </c>
       <c r="L17">
-        <v>7.440559219114109</v>
+        <v>9.695560499610556</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.98583488878752</v>
+        <v>25.96834405177647</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.05826555657179</v>
+        <v>13.62178372926203</v>
       </c>
       <c r="C18">
-        <v>7.412410084962984</v>
+        <v>9.831581749868249</v>
       </c>
       <c r="D18">
-        <v>5.534346957169841</v>
+        <v>6.143420445675921</v>
       </c>
       <c r="E18">
-        <v>8.810045215655252</v>
+        <v>12.38769595149346</v>
       </c>
       <c r="F18">
-        <v>22.59958360053679</v>
+        <v>29.12606820726949</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.33261103611059</v>
+        <v>9.766799947875047</v>
       </c>
       <c r="L18">
-        <v>7.385466075967778</v>
+        <v>9.689526309928615</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.95903207936374</v>
+        <v>25.98111153046172</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.98366197706172</v>
+        <v>13.5990674630814</v>
       </c>
       <c r="C19">
-        <v>7.415119382119206</v>
+        <v>9.832295107097915</v>
       </c>
       <c r="D19">
-        <v>5.525809484511459</v>
+        <v>6.140334081574568</v>
       </c>
       <c r="E19">
-        <v>8.796879006056907</v>
+        <v>12.38782543691023</v>
       </c>
       <c r="F19">
-        <v>22.56420426613357</v>
+        <v>29.12636554911679</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.28244023145723</v>
+        <v>9.750473948707349</v>
       </c>
       <c r="L19">
-        <v>7.366792560661863</v>
+        <v>9.687510041167007</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.95026551854048</v>
+        <v>25.98552631679577</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.31714403350255</v>
+        <v>13.70113969140316</v>
       </c>
       <c r="C20">
-        <v>7.403009233594806</v>
+        <v>9.829118963345403</v>
       </c>
       <c r="D20">
-        <v>5.564109676688106</v>
+        <v>6.154187149570756</v>
       </c>
       <c r="E20">
-        <v>8.856420187069165</v>
+        <v>12.38739854360695</v>
       </c>
       <c r="F20">
-        <v>22.72461383664181</v>
+        <v>29.12551517990276</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.5068473285401</v>
+        <v>9.823811559052258</v>
       </c>
       <c r="L20">
-        <v>7.450745925470695</v>
+        <v>9.696689996785434</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.99094294420868</v>
+        <v>25.96602476481807</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.39863477595708</v>
+        <v>14.04107812107455</v>
       </c>
       <c r="C21">
-        <v>7.363763851086083</v>
+        <v>9.819041599052937</v>
       </c>
       <c r="D21">
-        <v>5.690650783839335</v>
+        <v>6.20009119927723</v>
       </c>
       <c r="E21">
-        <v>9.061520059666336</v>
+        <v>12.38868719073185</v>
       </c>
       <c r="F21">
-        <v>23.28455241069599</v>
+        <v>29.13119038867985</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.23691701393134</v>
+        <v>10.0676957287491</v>
       </c>
       <c r="L21">
-        <v>7.731239016638776</v>
+        <v>9.729380858575315</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.1496463890246</v>
+        <v>25.90690760450027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.07675535332713</v>
+        <v>14.26062459286743</v>
       </c>
       <c r="C22">
-        <v>7.339201082426642</v>
+        <v>9.812896142730313</v>
       </c>
       <c r="D22">
-        <v>5.771695303747582</v>
+        <v>6.229600615043286</v>
       </c>
       <c r="E22">
-        <v>9.199261442163822</v>
+        <v>12.39155381044278</v>
       </c>
       <c r="F22">
-        <v>23.66614609988423</v>
+        <v>29.14125309031447</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.69628530733571</v>
+        <v>10.22494787480105</v>
       </c>
       <c r="L22">
-        <v>7.913174091765236</v>
+        <v>9.752102189512168</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.27046036923468</v>
+        <v>25.87305605275973</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.7174328656685</v>
+        <v>14.14371213556319</v>
       </c>
       <c r="C23">
-        <v>7.352210548083253</v>
+        <v>9.816135897803175</v>
       </c>
       <c r="D23">
-        <v>5.728595677306772</v>
+        <v>6.213896769724544</v>
       </c>
       <c r="E23">
-        <v>9.125412180931681</v>
+        <v>12.38983896413579</v>
       </c>
       <c r="F23">
-        <v>23.46105135306925</v>
+        <v>29.13530158566873</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.45273411012618</v>
+        <v>10.14123157447198</v>
       </c>
       <c r="L23">
-        <v>7.816210689559701</v>
+        <v>9.739852706195697</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.204373193448</v>
+        <v>25.89068477361475</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.29897823326137</v>
+        <v>13.69554470099799</v>
       </c>
       <c r="C24">
-        <v>7.40366886190255</v>
+        <v>9.829291141883925</v>
       </c>
       <c r="D24">
-        <v>5.562014309863173</v>
+        <v>6.153428777730431</v>
       </c>
       <c r="E24">
-        <v>8.853131299081175</v>
+        <v>12.38741173124379</v>
       </c>
       <c r="F24">
-        <v>22.71572598743246</v>
+        <v>29.12552977065028</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.49461396346712</v>
+        <v>9.819793000106616</v>
       </c>
       <c r="L24">
-        <v>7.446140976189461</v>
+        <v>9.696178875552294</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.98862797606652</v>
+        <v>25.96707162868273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.64353785250813</v>
+        <v>13.20337514140252</v>
       </c>
       <c r="C25">
-        <v>7.463772649739663</v>
+        <v>9.845386682832755</v>
       </c>
       <c r="D25">
-        <v>5.375621586012433</v>
+        <v>6.086186615065082</v>
       </c>
       <c r="E25">
-        <v>8.575738576369176</v>
+        <v>12.39351505479327</v>
       </c>
       <c r="F25">
-        <v>21.97886360332697</v>
+        <v>29.14229270086267</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.3846299350134</v>
+        <v>9.465617528423008</v>
       </c>
       <c r="L25">
-        <v>7.04244345854022</v>
+        <v>9.655023561689378</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.82490434307786</v>
+        <v>26.06993748136787</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_226/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.83636662940317</v>
+        <v>14.31423641877188</v>
       </c>
       <c r="C2">
-        <v>9.858893280965644</v>
+        <v>7.511928257693236</v>
       </c>
       <c r="D2">
-        <v>6.035034581594623</v>
+        <v>5.233091489902987</v>
       </c>
       <c r="E2">
-        <v>12.40552867458604</v>
+        <v>8.38592920431201</v>
       </c>
       <c r="F2">
-        <v>29.17808867001389</v>
+        <v>21.49350682432555</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.200439912298622</v>
+        <v>11.5016474030228</v>
       </c>
       <c r="L2">
-        <v>9.629963664221798</v>
+        <v>6.743130820524387</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.16319783465897</v>
+        <v>17.75862280209712</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58634283144126</v>
+        <v>13.34324720818663</v>
       </c>
       <c r="C3">
-        <v>9.869088147762357</v>
+        <v>7.546977736889956</v>
       </c>
       <c r="D3">
-        <v>5.99939281838004</v>
+        <v>5.133476765151541</v>
       </c>
       <c r="E3">
-        <v>12.41836552109813</v>
+        <v>8.266472853933884</v>
       </c>
       <c r="F3">
-        <v>29.21694017154272</v>
+        <v>21.19973916569485</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.019088439655929</v>
+        <v>10.86263492933798</v>
       </c>
       <c r="L3">
-        <v>9.616304712339197</v>
+        <v>6.54009707599197</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.23728306690399</v>
+        <v>17.74491415860067</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43274874063101</v>
+        <v>12.71207607137464</v>
       </c>
       <c r="C4">
-        <v>9.875864392211966</v>
+        <v>7.569684086065723</v>
       </c>
       <c r="D4">
-        <v>5.977044282430203</v>
+        <v>5.070927302089794</v>
       </c>
       <c r="E4">
-        <v>12.42856340197524</v>
+        <v>8.197695542806809</v>
       </c>
       <c r="F4">
-        <v>29.247974055141</v>
+        <v>21.03643820174402</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.907323940884734</v>
+        <v>10.45050528611142</v>
       </c>
       <c r="L4">
-        <v>9.609573857461271</v>
+        <v>6.415762151178623</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.28812220415171</v>
+        <v>17.75099431876702</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37022585299068</v>
+        <v>12.44601584634573</v>
       </c>
       <c r="C5">
-        <v>9.878756095433459</v>
+        <v>7.579234680891352</v>
       </c>
       <c r="D5">
-        <v>5.967822980051971</v>
+        <v>5.045106490991571</v>
       </c>
       <c r="E5">
-        <v>12.43330146478711</v>
+        <v>8.170821549148053</v>
       </c>
       <c r="F5">
-        <v>29.26242262540693</v>
+        <v>20.97413368303604</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.861736647058095</v>
+        <v>10.27764341583667</v>
       </c>
       <c r="L5">
-        <v>9.607249651936876</v>
+        <v>6.365245680455583</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.31018238476176</v>
+        <v>17.75698294230876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35985067408344</v>
+        <v>12.40130040733913</v>
       </c>
       <c r="C6">
-        <v>9.879244144951898</v>
+        <v>7.580838507862361</v>
       </c>
       <c r="D6">
-        <v>5.966284977222403</v>
+        <v>5.040799464984548</v>
       </c>
       <c r="E6">
-        <v>12.43412338432649</v>
+        <v>8.166428866871524</v>
       </c>
       <c r="F6">
-        <v>29.26493052958671</v>
+        <v>20.96404250452597</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.854166186231465</v>
+        <v>10.24864493650459</v>
       </c>
       <c r="L6">
-        <v>9.606889068266895</v>
+        <v>6.356868645436418</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.31392648501451</v>
+        <v>17.75818544580883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43190514288592</v>
+        <v>12.70852381005562</v>
       </c>
       <c r="C7">
-        <v>9.875902862456993</v>
+        <v>7.56981168454169</v>
       </c>
       <c r="D7">
-        <v>5.976920379149067</v>
+        <v>5.070580392251902</v>
       </c>
       <c r="E7">
-        <v>12.42862494342738</v>
+        <v>8.19732843749679</v>
       </c>
       <c r="F7">
-        <v>29.24816162209678</v>
+        <v>21.03558084337415</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.906709223536888</v>
+        <v>10.4481938265323</v>
       </c>
       <c r="L7">
-        <v>9.60954081437453</v>
+        <v>6.415080163989781</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.2884142820093</v>
+        <v>17.75106104639089</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.7502267473879</v>
+        <v>13.9866648544251</v>
       </c>
       <c r="C8">
-        <v>9.862301521174615</v>
+        <v>7.523766782009746</v>
       </c>
       <c r="D8">
-        <v>6.022843271790872</v>
+        <v>5.199041835948823</v>
       </c>
       <c r="E8">
-        <v>12.40947415838365</v>
+        <v>8.343795736454165</v>
       </c>
       <c r="F8">
-        <v>29.18999297856066</v>
+        <v>21.38864526688388</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.138032400014756</v>
+        <v>11.2854484906673</v>
       </c>
       <c r="L8">
-        <v>9.624911861240253</v>
+        <v>6.673096445013151</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.18763039704669</v>
+        <v>17.75080656153586</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.37008440802253</v>
+        <v>16.21815903806196</v>
       </c>
       <c r="C9">
-        <v>9.839708834549315</v>
+        <v>7.442917434761126</v>
       </c>
       <c r="D9">
-        <v>6.109098681552312</v>
+        <v>5.439264481628655</v>
       </c>
       <c r="E9">
-        <v>12.39029198177722</v>
+        <v>8.66696327737154</v>
       </c>
       <c r="F9">
-        <v>29.13299950006133</v>
+        <v>22.21814652242667</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.585746303022576</v>
+        <v>12.76876081971318</v>
       </c>
       <c r="L9">
-        <v>9.668080173699563</v>
+        <v>7.1788852139772</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.03255931855447</v>
+        <v>17.87127984039759</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.81800485084971</v>
+        <v>17.69372748446531</v>
       </c>
       <c r="C10">
-        <v>9.825571311995342</v>
+        <v>7.38933710866542</v>
       </c>
       <c r="D10">
-        <v>6.170004330189186</v>
+        <v>5.607776734774427</v>
       </c>
       <c r="E10">
-        <v>12.38738541562169</v>
+        <v>8.925771488309794</v>
       </c>
       <c r="F10">
-        <v>29.12603353050408</v>
+        <v>22.91273218088433</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.907714257184216</v>
+        <v>13.76067873763111</v>
       </c>
       <c r="L10">
-        <v>9.707570611228943</v>
+        <v>7.547016064056857</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.94472382462172</v>
+        <v>18.04152522909463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.0191957713567</v>
+        <v>18.33023546023114</v>
       </c>
       <c r="C11">
-        <v>9.819668870438633</v>
+        <v>7.36624381629251</v>
       </c>
       <c r="D11">
-        <v>6.197145035164279</v>
+        <v>5.682546485976088</v>
       </c>
       <c r="E11">
-        <v>12.3884855831691</v>
+        <v>9.0480130526966</v>
       </c>
       <c r="F11">
-        <v>29.13045217163483</v>
+        <v>23.24735746602661</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.05201181297792</v>
+        <v>14.1906467189559</v>
       </c>
       <c r="L11">
-        <v>9.727183058447173</v>
+        <v>7.713140065576075</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.91045964479191</v>
+        <v>18.13838021292972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.09493783731448</v>
+        <v>18.56633846421848</v>
       </c>
       <c r="C12">
-        <v>9.817509380484351</v>
+        <v>7.357685069270816</v>
       </c>
       <c r="D12">
-        <v>6.207338519019174</v>
+        <v>5.710576642031618</v>
       </c>
       <c r="E12">
-        <v>12.38924960488999</v>
+        <v>9.094938458752932</v>
       </c>
       <c r="F12">
-        <v>29.13321563444157</v>
+        <v>23.3767564210787</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.10629071537204</v>
+        <v>14.35041541569024</v>
       </c>
       <c r="L12">
-        <v>9.73484284916527</v>
+        <v>7.775812834730565</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.89830531072852</v>
+        <v>18.17797939681385</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.07864634749866</v>
+        <v>18.51570758711752</v>
       </c>
       <c r="C13">
-        <v>9.817971107695424</v>
+        <v>7.359520032801805</v>
       </c>
       <c r="D13">
-        <v>6.205146954713183</v>
+        <v>5.704552637051701</v>
       </c>
       <c r="E13">
-        <v>12.38906962471989</v>
+        <v>9.084804186074484</v>
       </c>
       <c r="F13">
-        <v>29.13257200826777</v>
+        <v>23.34876869522073</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.09461773837176</v>
+        <v>14.31614187245803</v>
       </c>
       <c r="L13">
-        <v>9.733182880733304</v>
+        <v>7.762326174331912</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.90088642763078</v>
+        <v>18.16931897745111</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.02543644034151</v>
+        <v>18.34975818884051</v>
       </c>
       <c r="C14">
-        <v>9.819489694322465</v>
+        <v>7.365535939050504</v>
       </c>
       <c r="D14">
-        <v>6.197985360758789</v>
+        <v>5.684858291412086</v>
       </c>
       <c r="E14">
-        <v>12.3885414830357</v>
+        <v>9.051860977400111</v>
       </c>
       <c r="F14">
-        <v>29.13065768172536</v>
+        <v>23.25794941515585</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.05648494053621</v>
+        <v>14.20385206548477</v>
       </c>
       <c r="L14">
-        <v>9.727808588578252</v>
+        <v>7.718301114965219</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.90944323925065</v>
+        <v>18.14157875372117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.99278378964651</v>
+        <v>18.24746952431607</v>
       </c>
       <c r="C15">
-        <v>9.820429710714283</v>
+        <v>7.369245166643168</v>
       </c>
       <c r="D15">
-        <v>6.193587641825602</v>
+        <v>5.672757672438879</v>
       </c>
       <c r="E15">
-        <v>12.38826319351888</v>
+        <v>9.031764649160413</v>
       </c>
       <c r="F15">
-        <v>29.12962704010594</v>
+        <v>23.20266945661393</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.0330786852031</v>
+        <v>14.13467432694409</v>
       </c>
       <c r="L15">
-        <v>9.724546897391814</v>
+        <v>7.691302783051514</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.9147914827932</v>
+        <v>18.12497147748498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.80479832256563</v>
+        <v>17.65143682951771</v>
       </c>
       <c r="C16">
-        <v>9.825967656502122</v>
+        <v>7.390872246387283</v>
       </c>
       <c r="D16">
-        <v>6.168219001733175</v>
+        <v>5.602851314372701</v>
       </c>
       <c r="E16">
-        <v>12.38736218720234</v>
+        <v>8.917872303702463</v>
       </c>
       <c r="F16">
-        <v>29.12589738847683</v>
+        <v>22.89123917643347</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.898235962035013</v>
+        <v>13.73215187131877</v>
       </c>
       <c r="L16">
-        <v>9.706321718239138</v>
+        <v>7.536128754854439</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.94707780981774</v>
+        <v>18.03559738733736</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.68876229890597</v>
+        <v>17.2769398636876</v>
       </c>
       <c r="C17">
-        <v>9.829500154551237</v>
+        <v>7.404469119044363</v>
       </c>
       <c r="D17">
-        <v>6.152509313564454</v>
+        <v>5.55947363966086</v>
       </c>
       <c r="E17">
-        <v>12.38742928499015</v>
+        <v>8.84914830370011</v>
       </c>
       <c r="F17">
-        <v>29.12555237403592</v>
+        <v>22.70496656748011</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.814921382407952</v>
+        <v>13.4797741014523</v>
       </c>
       <c r="L17">
-        <v>9.695560499610556</v>
+        <v>7.4405592191141</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.96834405177647</v>
+        <v>17.98583488878749</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.62178372926203</v>
+        <v>17.05826555657181</v>
       </c>
       <c r="C18">
-        <v>9.831581749868249</v>
+        <v>7.412410084963382</v>
       </c>
       <c r="D18">
-        <v>6.143420445675921</v>
+        <v>5.534346957169908</v>
       </c>
       <c r="E18">
-        <v>12.38769595149346</v>
+        <v>8.810045215655355</v>
       </c>
       <c r="F18">
-        <v>29.12606820726949</v>
+        <v>22.59958360053669</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.766799947875047</v>
+        <v>13.33261103611064</v>
       </c>
       <c r="L18">
-        <v>9.689526309928615</v>
+        <v>7.385466075967761</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.98111153046172</v>
+        <v>17.95903207936367</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.5990674630814</v>
+        <v>16.98366197706172</v>
       </c>
       <c r="C19">
-        <v>9.832295107097915</v>
+        <v>7.415119382119341</v>
       </c>
       <c r="D19">
-        <v>6.140334081574568</v>
+        <v>5.525809484511468</v>
       </c>
       <c r="E19">
-        <v>12.38782543691023</v>
+        <v>8.796879006056862</v>
       </c>
       <c r="F19">
-        <v>29.12636554911679</v>
+        <v>22.56420426613348</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.750473948707349</v>
+        <v>13.28244023145725</v>
       </c>
       <c r="L19">
-        <v>9.687510041167007</v>
+        <v>7.366792560661817</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.98552631679577</v>
+        <v>17.95026551854036</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.70113969140316</v>
+        <v>17.31714403350251</v>
       </c>
       <c r="C20">
-        <v>9.829118963345403</v>
+        <v>7.403009233594933</v>
       </c>
       <c r="D20">
-        <v>6.154187149570756</v>
+        <v>5.564109676688209</v>
       </c>
       <c r="E20">
-        <v>12.38739854360695</v>
+        <v>8.856420187069206</v>
       </c>
       <c r="F20">
-        <v>29.12551517990276</v>
+        <v>22.72461383664179</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.823811559052258</v>
+        <v>13.50684732854013</v>
       </c>
       <c r="L20">
-        <v>9.696689996785434</v>
+        <v>7.450745925470713</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.96602476481807</v>
+        <v>17.99094294420867</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04107812107455</v>
+        <v>18.39863477595708</v>
       </c>
       <c r="C21">
-        <v>9.819041599052937</v>
+        <v>7.36376385108594</v>
       </c>
       <c r="D21">
-        <v>6.20009119927723</v>
+        <v>5.690650783839472</v>
       </c>
       <c r="E21">
-        <v>12.38868719073185</v>
+        <v>9.061520059666279</v>
       </c>
       <c r="F21">
-        <v>29.13119038867985</v>
+        <v>23.28455241069598</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.0676957287491</v>
+        <v>14.23691701393129</v>
       </c>
       <c r="L21">
-        <v>9.729380858575315</v>
+        <v>7.731239016638798</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.90690760450027</v>
+        <v>18.14964638902458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.26062459286743</v>
+        <v>19.07675535332701</v>
       </c>
       <c r="C22">
-        <v>9.812896142730313</v>
+        <v>7.339201082426647</v>
       </c>
       <c r="D22">
-        <v>6.229600615043286</v>
+        <v>5.771695303747697</v>
       </c>
       <c r="E22">
-        <v>12.39155381044278</v>
+        <v>9.199261442163857</v>
       </c>
       <c r="F22">
-        <v>29.14125309031447</v>
+        <v>23.66614609988433</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.22494787480105</v>
+        <v>14.69628530733559</v>
       </c>
       <c r="L22">
-        <v>9.752102189512168</v>
+        <v>7.913174091765265</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.87305605275973</v>
+        <v>18.27046036923483</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.14371213556319</v>
+        <v>18.71743286566847</v>
       </c>
       <c r="C23">
-        <v>9.816135897803175</v>
+        <v>7.352210548083507</v>
       </c>
       <c r="D23">
-        <v>6.213896769724544</v>
+        <v>5.728595677306767</v>
       </c>
       <c r="E23">
-        <v>12.38983896413579</v>
+        <v>9.125412180931672</v>
       </c>
       <c r="F23">
-        <v>29.13530158566873</v>
+        <v>23.46105135306939</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.14123157447198</v>
+        <v>14.45273411012618</v>
       </c>
       <c r="L23">
-        <v>9.739852706195697</v>
+        <v>7.816210689559677</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.89068477361475</v>
+        <v>18.20437319344816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.69554470099799</v>
+        <v>17.29897823326148</v>
       </c>
       <c r="C24">
-        <v>9.829291141883925</v>
+        <v>7.403668861902283</v>
       </c>
       <c r="D24">
-        <v>6.153428777730431</v>
+        <v>5.562014309863184</v>
       </c>
       <c r="E24">
-        <v>12.38741173124379</v>
+        <v>8.853131299081168</v>
       </c>
       <c r="F24">
-        <v>29.12552977065028</v>
+        <v>22.71572598743236</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.819793000106616</v>
+        <v>13.49461396346721</v>
       </c>
       <c r="L24">
-        <v>9.696178875552294</v>
+        <v>7.446140976189465</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.96707162868273</v>
+        <v>17.98862797606643</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.20337514140252</v>
+        <v>15.64353785250817</v>
       </c>
       <c r="C25">
-        <v>9.845386682832755</v>
+        <v>7.463772649739525</v>
       </c>
       <c r="D25">
-        <v>6.086186615065082</v>
+        <v>5.375621586012541</v>
       </c>
       <c r="E25">
-        <v>12.39351505479327</v>
+        <v>8.575738576369089</v>
       </c>
       <c r="F25">
-        <v>29.14229270086267</v>
+        <v>21.97886360332696</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.465617528423008</v>
+        <v>12.38462993501339</v>
       </c>
       <c r="L25">
-        <v>9.655023561689378</v>
+        <v>7.042443458540185</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.06993748136787</v>
+        <v>17.82490434307788</v>
       </c>
     </row>
   </sheetData>
